--- a/RPG OBJECTS.xlsx
+++ b/RPG OBJECTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GAMES\EMULATORS\TRS80\TRS80 GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D39F9-1E5E-4035-B509-EED5EE049FB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17713F7C-3A5F-4DF2-A692-7A287AC3A954}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32700" yWindow="0" windowWidth="24645" windowHeight="19845" xr2:uid="{6A4E48CC-A6F4-433F-8931-4A315A2577D4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>NAME</t>
   </si>
@@ -174,9 +174,6 @@
     <t>2)  0 ,0 ,0 ,0 ,0 ,3 ,3 ,2 ,0 , 0</t>
   </si>
   <si>
-    <t>3)  0, 4, 0, 0, 0,13, 0, 0, 0, 0</t>
-  </si>
-  <si>
     <t>4)  0, 0, 0, 0, 0,12, 0, 0, 0, 0</t>
   </si>
   <si>
@@ -187,6 +184,21 @@
   </si>
   <si>
     <t>8) 0, 17, 0, 0, 0,14, 0, 6, 2, 2</t>
+  </si>
+  <si>
+    <t>3)  0, 4, 0, 0, 0,13, 0, 3, 0, 0</t>
+  </si>
+  <si>
+    <t>10)  0 ,18, 0, 0, 0, 0, 0, 2, 0, 0</t>
+  </si>
+  <si>
+    <t>9)  0 ,7 ,0 ,0 ,0 ,15, 0, 5, 0, 0</t>
+  </si>
+  <si>
+    <t>inanimate bones</t>
+  </si>
+  <si>
+    <t>Shoulder pad</t>
   </si>
 </sst>
 </file>
@@ -614,7 +626,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +861,9 @@
         <v>-2</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3">
         <v>3</v>
@@ -1069,10 +1083,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2">
+      <c r="I14" s="2"/>
+      <c r="J14" s="3">
         <v>13</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="2">
         <v>5</v>
       </c>
@@ -1080,7 +1094,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
       <c r="O14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1167,13 +1181,19 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>11</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -1183,19 +1203,31 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>4</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="12" t="s">
         <v>45</v>
@@ -1236,7 +1268,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="3"/>
       <c r="O20" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1255,7 +1287,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="3"/>
       <c r="O21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1274,7 +1306,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="3"/>
       <c r="O22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1331,10 +1363,10 @@
       <c r="M25" s="4"/>
       <c r="N25" s="3"/>
       <c r="O25" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1349,9 +1381,11 @@
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1366,7 +1400,9 @@
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
